--- a/src/main/resources/jxls/template/orderInfo.xlsx
+++ b/src/main/resources/jxls/template/orderInfo.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -238,21 +239,21 @@
   </si>
   <si>
     <t>长</t>
-    <rPh sb="0" eb="4">
+    <rPh sb="0" eb="1">
       <t>chan</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>宽</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="1">
       <t>dan we</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>厚</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="1">
       <t>cai</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -461,9 +462,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,13 +471,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -796,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -805,9 +806,9 @@
     <col min="1" max="1" width="24.4609375" customWidth="1"/>
     <col min="2" max="2" width="25.69140625" customWidth="1"/>
     <col min="3" max="3" width="20.3046875" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.921875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.84375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.921875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.84375" style="7" customWidth="1"/>
     <col min="7" max="7" width="17.84375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="0.15234375" hidden="1" customWidth="1"/>
@@ -835,8 +836,8 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -877,16 +878,16 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -949,7 +950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -959,43 +960,43 @@
       <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="11" t="s">
         <v>50</v>
       </c>
     </row>

--- a/src/main/resources/jxls/template/orderInfo.xlsx
+++ b/src/main/resources/jxls/template/orderInfo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guan/Documents/git/gitee/nmErp/smErp/src/main/resources/jxls/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0409801-1E7E-1E4D-BDD1-E6177CEA01DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="9160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,70 +14,37 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="4"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="S4")
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+jx:area(lastCell="S5")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <family val="4"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:each( items="orderInfo" var="item" lastCell="S3")</t>
+          <t>Author:
+jx:each( items="orderInfo" var="item" lastCell="S3")</t>
         </r>
       </text>
     </comment>
@@ -92,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>订单详情信息</t>
   </si>
@@ -142,6 +103,9 @@
     <t>总面积</t>
   </si>
   <si>
+    <t>汇总价格</t>
+  </si>
+  <si>
     <t>${item.itemName}</t>
   </si>
   <si>
@@ -184,25 +148,30 @@
     <t>${item.itemTotalSq}</t>
   </si>
   <si>
-    <t>备注</t>
-    <rPh sb="0" eb="2">
-      <t>bei zh</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>${item.itemPrice * item.itemNum * item.itemLenth * item.itemWidth}</t>
   </si>
   <si>
     <t>${item.itemRemarks}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总价:</t>
+  </si>
+  <si>
+    <t>${totalPrice}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,7 +183,6 @@
       <sz val="18"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -222,34 +190,155 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,12 +347,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -271,13 +540,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +805,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,24 +820,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -581,168 +1139,186 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19" customHeight="1" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.8333333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.8333333333333" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0.1640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="0.166666666666667" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="18.1666666666667" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="20.1640625" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="20.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="15.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="20.1666666666667" customWidth="1"/>
+    <col min="17" max="17" width="17.3333333333333" customWidth="1"/>
+    <col min="18" max="18" width="30.7333333333333" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:19">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="19" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:19">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="R3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>31</v>
-      </c>
+    <row r="4" customHeight="1" spans="17:19">
+      <c r="Q4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="R4:S4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/jxls/template/orderInfo.xlsx
+++ b/src/main/resources/jxls/template/orderInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="9160"/>
+    <workbookView windowWidth="28800" windowHeight="12160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,8 @@
             <rFont val="等线"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Author:
-jx:area(lastCell="S5")
-</t>
+          <t>Author:
+jx:area(lastCell="S5")</t>
         </r>
       </text>
     </comment>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>订单详情信息</t>
   </si>
@@ -76,36 +75,42 @@
     <t>厚</t>
   </si>
   <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>归属人</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>入库数量</t>
+  </si>
+  <si>
+    <t>入库总重量</t>
+  </si>
+  <si>
+    <t>计价方式</t>
+  </si>
+  <si>
+    <t>延长方式</t>
+  </si>
+  <si>
+    <t>压边类型</t>
+  </si>
+  <si>
+    <t>总面积</t>
+  </si>
+  <si>
+    <t>汇总价格</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>颜色</t>
-  </si>
-  <si>
-    <t>归属人</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>计价方式</t>
-  </si>
-  <si>
-    <t>延长方式</t>
-  </si>
-  <si>
-    <t>压边类型</t>
-  </si>
-  <si>
-    <t>总面积</t>
-  </si>
-  <si>
-    <t>汇总价格</t>
-  </si>
-  <si>
     <t>${item.itemName}</t>
   </si>
   <si>
@@ -136,6 +141,12 @@
     <t>${item.itemNum}</t>
   </si>
   <si>
+    <t>${item.stockNum}</t>
+  </si>
+  <si>
+    <t>${item.totalStocktWeight}</t>
+  </si>
+  <si>
     <t>${item.itemPriceTypeValue}</t>
   </si>
   <si>
@@ -148,7 +159,7 @@
     <t>${item.itemTotalSq}</t>
   </si>
   <si>
-    <t>${item.itemPrice * item.itemNum * item.itemLenth * item.itemWidth}</t>
+    <t>${item.totalPrice}</t>
   </si>
   <si>
     <t>${item.itemRemarks}</t>
@@ -166,10 +177,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -195,6 +206,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -203,6 +237,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +274,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -232,7 +290,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,95 +342,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -353,6 +364,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,85 +418,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,73 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +549,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,45 +581,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,157 +619,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1145,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19" customHeight="1" outlineLevelRow="3"/>
@@ -1159,22 +1173,18 @@
     <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.8333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.8333333333333" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0.166666666666667" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.8333333333333" customWidth="1"/>
-    <col min="11" max="11" width="18.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="20.3333333333333" customWidth="1"/>
-    <col min="15" max="15" width="15.3333333333333" customWidth="1"/>
-    <col min="16" max="16" width="20.1666666666667" customWidth="1"/>
-    <col min="17" max="17" width="17.3333333333333" customWidth="1"/>
-    <col min="18" max="18" width="30.7333333333333" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="12" width="15.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="20.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="15.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="20.1666666666667" customWidth="1"/>
+    <col min="16" max="17" width="17.3333333333333" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1195,9 +1205,8 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:19">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:18">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1219,102 +1228,108 @@
       <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:19">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:18">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="17:19">
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="12"/>
+    <row r="4" customHeight="1" spans="16:18">
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="R4:S4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
